--- a/figures-tables-ppts/exp-results.xlsx
+++ b/figures-tables-ppts/exp-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan.yang/Desktop/github/figures&amp;tables&amp;ppts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E78805-03BB-BF4C-9A0E-4ADDF42516A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C783A104-0EA3-8040-A16F-5ED9E94CA2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20040" xr2:uid="{2DC79B92-AD11-E94E-A4D2-35C2DDEC6B8A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="194">
   <si>
     <t>Task</t>
   </si>
@@ -610,6 +610,21 @@
   </si>
   <si>
     <t>zephyr-7b-sft-full-iter3 (20k)-gpt-preference</t>
+  </si>
+  <si>
+    <t>llama2-ultrachat-iter1-gpt-preference</t>
+  </si>
+  <si>
+    <t>llama2-ultrachat-iter1-noised-real-0.25</t>
+  </si>
+  <si>
+    <t>llama2-ultrachat-iter2-gpt-preference</t>
+  </si>
+  <si>
+    <t>llama2-ultrachat-iter3-gpt-preference</t>
+  </si>
+  <si>
+    <t>zephyr-7b-sft-full-iter0 (20k)-gpt-preference&gt;5</t>
   </si>
 </sst>
 </file>
@@ -981,6 +996,12 @@
     <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,12 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1460,11 +1475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7C3B7E-28CB-344C-8904-A49095D318CC}">
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,7 +1594,7 @@
         <v>0.2535</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J89" si="0">AVERAGE(B3:I3)</f>
+        <f t="shared" ref="J3:J91" si="0">AVERAGE(B3:I3)</f>
         <v>0.39159999999999995</v>
       </c>
     </row>
@@ -2387,217 +2402,182 @@
         <v>0.57538750000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="52" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:24" ht="52" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <v>0.60919999999999996</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C28" s="4">
         <v>0.82240000000000002</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="4">
         <v>0.31330000000000002</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>0.45040000000000002</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>0.74109999999999998</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>0.2873</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <v>0.82840000000000003</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="4">
         <v>0.58330000000000004</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J28" s="6">
         <f t="shared" si="0"/>
         <v>0.57942500000000008</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.59040000000000004</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.82789999999999997</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.2999</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.44690000000000002</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.76870000000000005</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.31459999999999999</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.82250000000000001</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.58740000000000003</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.58228749999999996</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.2999</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.58740000000000003</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.58228749999999996</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B30" s="4">
         <v>0.59560000000000002</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="4">
         <v>0.82950000000000002</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D30" s="4">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <v>0.41930000000000001</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>0.77429999999999999</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>0.31009999999999999</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>0.82489999999999997</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="4">
         <v>0.58620000000000005</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J30" s="6">
         <f t="shared" si="0"/>
         <v>0.57798749999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="11">
-        <v>0.6169</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0.86529999999999996</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.51759999999999995</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0.7853</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0.38740000000000002</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0.82930000000000004</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="J30" s="12">
-        <f t="shared" si="0"/>
-        <v>0.62033749999999999</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="11">
-        <v>0.62290000000000001</v>
+        <v>0.6169</v>
       </c>
       <c r="C31" s="11">
-        <v>0.86619999999999997</v>
+        <v>0.86529999999999996</v>
       </c>
       <c r="D31" s="11">
-        <v>0.34520000000000001</v>
+        <v>0.35670000000000002</v>
       </c>
       <c r="E31" s="11">
-        <v>0.51200000000000001</v>
+        <v>0.51759999999999995</v>
       </c>
       <c r="F31" s="11">
-        <v>0.78610000000000002</v>
+        <v>0.7853</v>
       </c>
       <c r="G31" s="11">
-        <v>0.38059999999999999</v>
+        <v>0.38740000000000002</v>
       </c>
       <c r="H31" s="11">
-        <v>0.83109999999999995</v>
+        <v>0.82930000000000004</v>
       </c>
       <c r="I31" s="11">
-        <v>0.60650000000000004</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="0"/>
-        <v>0.61882499999999996</v>
+        <v>0.62033749999999999</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2613,40 +2593,40 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="17">
-        <v>0.58530000000000004</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0.82030000000000003</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0.29010000000000002</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0.43409999999999999</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0.7601</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0.31609999999999999</v>
-      </c>
-      <c r="H32" s="17">
-        <v>0.81720000000000004</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0.58460000000000001</v>
-      </c>
-      <c r="J32" s="18">
-        <f>AVERAGE(B32:I32)</f>
-        <v>0.57597500000000001</v>
+    <row r="32" spans="1:24" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.78610000000000002</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.38059999999999999</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="0"/>
+        <v>0.61882499999999996</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2662,37 +2642,40 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="B33" s="17">
-        <v>0.59389999999999998</v>
+        <v>0.58530000000000004</v>
       </c>
       <c r="C33" s="17">
-        <v>0.82699999999999996</v>
+        <v>0.82030000000000003</v>
       </c>
       <c r="D33" s="17">
-        <v>0.31330000000000002</v>
+        <v>0.29010000000000002</v>
       </c>
       <c r="E33" s="17">
-        <v>0.44069999999999998</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="F33" s="17">
-        <v>0.76719999999999999</v>
+        <v>0.7601</v>
       </c>
       <c r="G33" s="17">
-        <v>0.31690000000000002</v>
+        <v>0.31609999999999999</v>
       </c>
       <c r="H33" s="17">
-        <v>0.82289999999999996</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="I33" s="17">
-        <v>0.58550000000000002</v>
+        <v>0.58460000000000001</v>
       </c>
       <c r="J33" s="18">
         <f>AVERAGE(B33:I33)</f>
-        <v>0.58342499999999997</v>
+        <v>0.57597500000000001</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2708,89 +2691,86 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" s="16" customFormat="1" ht="52" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.59389999999999998</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="J34" s="18">
+        <f>AVERAGE(B34:I34)</f>
+        <v>0.58342499999999997</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" s="16" customFormat="1" ht="52" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B35" s="26">
         <v>0.58789999999999998</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C35" s="26">
         <v>0.82030000000000003</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D35" s="26">
         <v>0.30230000000000001</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E35" s="26">
         <v>0.43509999999999999</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F35" s="26">
         <v>0.76160000000000005</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G35" s="26">
         <v>0.32829999999999998</v>
-      </c>
-      <c r="H34" s="26">
-        <v>0.82140000000000002</v>
-      </c>
-      <c r="I34" s="26">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="J34" s="27">
-        <f>AVERAGE(B34:I34)</f>
-        <v>0.58055000000000001</v>
-      </c>
-      <c r="K34" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-    </row>
-    <row r="35" spans="1:24" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="26">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="C35" s="26">
-        <v>0.82579999999999998</v>
-      </c>
-      <c r="D35" s="26">
-        <v>0.30349999999999999</v>
-      </c>
-      <c r="E35" s="26">
-        <v>0.44690000000000002</v>
-      </c>
-      <c r="F35" s="26">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="G35" s="26">
-        <v>0.32750000000000001</v>
       </c>
       <c r="H35" s="26">
         <v>0.82140000000000002</v>
       </c>
       <c r="I35" s="26">
-        <v>0.58799999999999997</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="J35" s="27">
         <f>AVERAGE(B35:I35)</f>
-        <v>0.58376250000000007</v>
+        <v>0.58055000000000001</v>
       </c>
       <c r="K35" s="40" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
@@ -2806,89 +2786,89 @@
       <c r="W35" s="41"/>
       <c r="X35" s="41"/>
     </row>
-    <row r="36" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:24" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="26">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="E36" s="26">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="F36" s="26">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="I36" s="26">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="J36" s="27">
+        <f>AVERAGE(B36:I36)</f>
+        <v>0.58376250000000007</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+    </row>
+    <row r="37" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B37" s="4">
         <v>0.5776</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C37" s="4">
         <v>0.82240000000000002</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D37" s="4">
         <v>0.27779999999999999</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <v>0.42459999999999998</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="4">
         <v>0.76160000000000005</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G37" s="4">
         <v>0.28199999999999997</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H37" s="4">
         <v>0.81689999999999996</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I37" s="4">
         <v>0.58430000000000004</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J37" s="6">
         <f t="shared" si="0"/>
         <v>0.56840000000000002</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-    </row>
-    <row r="37" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37">
-        <v>0.60840000000000005</v>
-      </c>
-      <c r="C37">
-        <v>0.83289999999999997</v>
-      </c>
-      <c r="D37">
-        <v>0.2974</v>
-      </c>
-      <c r="E37">
-        <v>0.4365</v>
-      </c>
-      <c r="F37">
-        <v>0.77190000000000003</v>
-      </c>
-      <c r="G37">
-        <v>0.31459999999999999</v>
-      </c>
-      <c r="H37">
-        <v>0.82789999999999997</v>
-      </c>
-      <c r="I37">
-        <v>0.58930000000000005</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>0.58486249999999995</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -2905,85 +2885,88 @@
       <c r="X37" s="4"/>
     </row>
     <row r="38" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="C38">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="D38">
+        <v>0.2974</v>
+      </c>
+      <c r="E38">
+        <v>0.4365</v>
+      </c>
+      <c r="F38">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="G38">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="H38">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="I38">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0.58486249999999995</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B39" s="11">
         <v>0.66549999999999998</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C39" s="11">
         <v>0.86199999999999999</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>0.43330000000000002</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>0.59860000000000002</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>0.78220000000000001</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>0.28889999999999999</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="11">
         <v>0.83830000000000005</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I39" s="11">
         <v>0.60640000000000005</v>
-      </c>
-      <c r="J38" s="12">
-        <f>AVERAGE(B38:I38)</f>
-        <v>0.63439999999999996</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="11">
-        <v>0.64419999999999999</v>
-      </c>
-      <c r="C39" s="11">
-        <v>0.86990000000000001</v>
-      </c>
-      <c r="D39" s="11">
-        <v>0.37580000000000002</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0.55089999999999995</v>
-      </c>
-      <c r="F39" s="11">
-        <v>0.7782</v>
-      </c>
-      <c r="G39" s="11">
-        <v>0.37980000000000003</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0.8427</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0.61119999999999997</v>
       </c>
       <c r="J39" s="12">
         <f>AVERAGE(B39:I39)</f>
-        <v>0.63158749999999997</v>
+        <v>0.63439999999999996</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -3000,1680 +2983,1863 @@
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.86990000000000001</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.7782</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.8427</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="J40" s="12">
+        <f>AVERAGE(B40:I40)</f>
+        <v>0.63158749999999997</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <v>0.59809999999999997</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C41" s="4">
         <v>0.83</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D41" s="4">
         <v>0.2999</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <v>0.44040000000000001</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="4">
         <v>0.76160000000000005</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="4">
         <v>0.30249999999999999</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="4">
         <v>0.82369999999999999</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I41" s="4">
         <v>0.58450000000000002</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J41" s="6">
         <f t="shared" si="0"/>
         <v>0.58008749999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B42" s="4">
         <v>0.59130000000000005</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C42" s="4">
         <v>0.83120000000000005</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D42" s="4">
         <v>0.29010000000000002</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <v>0.43630000000000002</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="4">
         <v>0.77029999999999998</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="4">
         <v>0.32450000000000001</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <v>0.82110000000000005</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="4">
         <v>0.58850000000000002</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J42" s="6">
         <f t="shared" si="0"/>
         <v>0.58166249999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+    <row r="43" spans="1:24" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B43" s="17">
         <v>0.59040000000000004</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C43" s="17">
         <v>0.82410000000000005</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <v>0.30719999999999997</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>0.43280000000000002</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>0.76090000000000002</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G43" s="17">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H43" s="17">
         <v>0.81969999999999998</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I43" s="17">
         <v>0.58499999999999996</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J43" s="18">
         <f t="shared" si="0"/>
         <v>0.57451249999999998</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    <row r="44" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:24" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="17">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0.254</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0.8246</v>
+      </c>
+      <c r="I44" s="17">
+        <v>0.5796</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="0"/>
+        <v>0.57502500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B45" s="11">
         <v>0.64329999999999998</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C45" s="11">
         <v>0.86070000000000002</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>0.3574</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>0.50629999999999997</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>0.78300000000000003</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="11">
         <v>0.3503</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H45" s="11">
         <v>0.82789999999999997</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I45" s="11">
         <v>0.60499999999999998</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J45" s="12">
         <f t="shared" si="0"/>
         <v>0.61673749999999994</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K45" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:24" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B46" s="17">
         <v>0.58189999999999997</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C46" s="17">
         <v>0.82450000000000001</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <v>0.31459999999999999</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>0.45150000000000001</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>0.75609999999999999</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G46" s="17">
         <v>0.2752</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H46" s="17">
         <v>0.81810000000000005</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I46" s="17">
         <v>0.5786</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J46" s="18">
         <f t="shared" si="0"/>
         <v>0.57506250000000003</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K46" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+    <row r="47" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:24" ht="52" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="B47" s="17">
+        <v>0.59130000000000005</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="D47" s="17">
+        <v>0.28889999999999999</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="G47" s="17">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0.58030000000000004</v>
+      </c>
+      <c r="J47" s="18">
+        <f t="shared" si="0"/>
+        <v>0.56532499999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="52" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B48" s="11">
         <v>0.62029999999999996</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C48" s="11">
         <v>0.85519999999999996</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>0.36959999999999998</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>0.54510000000000003</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>0.77110000000000001</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>0.33129999999999998</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H48" s="11">
         <v>0.82240000000000002</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I48" s="11">
         <v>0.60019999999999996</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J48" s="12">
         <f t="shared" si="0"/>
         <v>0.61439999999999995</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.62539999999999996</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.87370000000000003</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0.57779999999999998</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.76649999999999996</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0.80389999999999995</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0.69489999999999996</v>
-      </c>
-      <c r="J49" s="6">
-        <f t="shared" si="0"/>
-        <v>0.68161249999999984</v>
-      </c>
-      <c r="K49"/>
+    <row r="49" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.80389999999999995</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.69489999999999996</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" si="0"/>
+        <v>0.68161249999999984</v>
+      </c>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="4">
         <v>0.628</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C51" s="4">
         <v>0.87629999999999997</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D51" s="4">
         <v>0.38069999999999998</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E51" s="4">
         <v>0.56589999999999996</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F51" s="4">
         <v>0.72219999999999995</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G51" s="4">
         <v>0.76119999999999999</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H51" s="4">
         <v>0.79990000000000006</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I51" s="4">
         <v>0.69379999999999997</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J51" s="6">
         <f t="shared" si="0"/>
         <v>0.67849999999999988</v>
       </c>
-      <c r="K50"/>
-    </row>
-    <row r="51" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.43940000000000001</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0.72560000000000002</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0.3256</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0.46560000000000001</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0.629</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0.42530000000000001</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0.41210000000000002</v>
-      </c>
-      <c r="J52" s="6">
-        <f t="shared" si="0"/>
-        <v>0.51428750000000001</v>
-      </c>
-      <c r="K52"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.43940000000000001</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.3256</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.46560000000000001</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.629</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.42530000000000001</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.41210000000000002</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="0"/>
+        <v>0.51428750000000001</v>
+      </c>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B54" s="4">
         <v>0.44030000000000002</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C54" s="4">
         <v>0.72809999999999997</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D54" s="4">
         <v>0.32190000000000002</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <v>0.4587</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="4">
         <v>0.62270000000000003</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="4">
         <v>0.43140000000000001</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="4">
         <v>0.68730000000000002</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="4">
         <v>0.41020000000000001</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J54" s="6">
         <f t="shared" si="0"/>
         <v>0.512575</v>
       </c>
-      <c r="K53"/>
-    </row>
-    <row r="54" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B55" s="4">
         <v>0.43690000000000001</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C55" s="4">
         <v>0.72899999999999998</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D55" s="4">
         <v>0.32440000000000002</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <v>0.4617</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F55" s="4">
         <v>0.62980000000000003</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G55" s="4">
         <v>0.42759999999999998</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H55" s="4">
         <v>0.69020000000000004</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I55" s="4">
         <v>0.41149999999999998</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J55" s="6">
         <f t="shared" si="0"/>
         <v>0.51388749999999994</v>
       </c>
-      <c r="K54"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B56" s="4">
         <v>0.43769999999999998</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C56" s="4">
         <v>0.7298</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D56" s="4">
         <v>0.31819999999999998</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="4">
         <v>0.45860000000000001</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="4">
         <v>0.62270000000000003</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="4">
         <v>0.43369999999999997</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="4">
         <v>0.68710000000000004</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="4">
         <v>0.4098</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J56" s="6">
         <f t="shared" si="0"/>
         <v>0.51219999999999999</v>
       </c>
-      <c r="K55"/>
-    </row>
-    <row r="56" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.54179999999999995</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0.30230000000000001</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0.45319999999999999</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0.71350000000000002</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0.22289999999999999</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0.78710000000000002</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0.47389999999999999</v>
-      </c>
-      <c r="J57" s="6">
-        <f t="shared" si="0"/>
-        <v>0.53942500000000004</v>
-      </c>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B58" s="4">
-        <v>0.52470000000000006</v>
+        <v>0.54179999999999995</v>
       </c>
       <c r="C58" s="4">
-        <v>0.81730000000000003</v>
+        <v>0.82069999999999999</v>
       </c>
       <c r="D58" s="4">
-        <v>0.29499999999999998</v>
+        <v>0.30230000000000001</v>
       </c>
       <c r="E58" s="4">
-        <v>0.45390000000000003</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="F58" s="4">
-        <v>0.73089999999999999</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="G58" s="4">
-        <v>0.23649999999999999</v>
+        <v>0.22289999999999999</v>
       </c>
       <c r="H58" s="4">
-        <v>0.76629999999999998</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="I58" s="4">
-        <v>0.47510000000000002</v>
+        <v>0.47389999999999999</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" si="0"/>
-        <v>0.53746250000000007</v>
+        <v>0.53942500000000004</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.73089999999999999</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.47510000000000002</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53746250000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B60" s="4">
         <v>0.5222</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C60" s="4">
         <v>0.81359999999999999</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D60" s="4">
         <v>0.29249999999999998</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <v>0.4446</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="4">
         <v>0.72689999999999999</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="4">
         <v>0.23960000000000001</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="4">
         <v>0.76060000000000005</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="4">
         <v>0.47589999999999999</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J60" s="6">
         <f t="shared" si="0"/>
         <v>0.5344875</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B61" s="4">
         <v>0.55289999999999995</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C61" s="4">
         <v>0.82869999999999999</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D61" s="4">
         <v>0.30719999999999997</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <v>0.45779999999999998</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F61" s="4">
         <v>0.72529999999999994</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G61" s="4">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H61" s="4">
         <v>0.78569999999999995</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I61" s="4">
         <v>0.47039999999999998</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J61" s="6">
         <f t="shared" si="0"/>
         <v>0.54499999999999993</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K61" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="4">
-        <v>0.55459999999999998</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0.82279999999999998</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0.2974</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0.45250000000000001</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0.71109999999999995</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="H61" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="I61" s="4">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="J61" s="6">
-        <f t="shared" si="0"/>
-        <v>0.54117499999999996</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B62" s="4">
-        <v>0.55289999999999995</v>
+        <v>0.55459999999999998</v>
       </c>
       <c r="C62" s="4">
-        <v>0.82489999999999997</v>
+        <v>0.82279999999999998</v>
       </c>
       <c r="D62" s="4">
-        <v>0.29380000000000001</v>
+        <v>0.2974</v>
       </c>
       <c r="E62" s="4">
-        <v>0.45140000000000002</v>
+        <v>0.45250000000000001</v>
       </c>
       <c r="F62" s="4">
-        <v>0.7167</v>
+        <v>0.71109999999999995</v>
       </c>
       <c r="G62" s="4">
-        <v>0.23280000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="H62" s="4">
-        <v>0.78910000000000002</v>
+        <v>0.79</v>
       </c>
       <c r="I62" s="4">
-        <v>0.47210000000000002</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" si="0"/>
-        <v>0.54171250000000004</v>
+        <v>0.54117499999999996</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.55289999999999995</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.7167</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.47210000000000002</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" si="0"/>
+        <v>0.54171250000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B64" s="4">
         <v>0.55200000000000005</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C64" s="4">
         <v>0.83160000000000001</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D64" s="4">
         <v>0.2974</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="4">
         <v>0.4551</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F64" s="4">
         <v>0.72140000000000004</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G64" s="4">
         <v>0.22289999999999999</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H64" s="4">
         <v>0.78590000000000004</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I64" s="4">
         <v>0.47060000000000002</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J64" s="6">
         <f t="shared" si="0"/>
         <v>0.5421125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0.55030000000000001</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.82830000000000004</v>
-      </c>
-      <c r="D64" s="4">
-        <v>0.30969999999999998</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0.46360000000000001</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0.72689999999999999</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0.22439999999999999</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0.77310000000000001</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0.46910000000000002</v>
-      </c>
-      <c r="J64" s="6">
-        <f t="shared" si="0"/>
-        <v>0.54317499999999996</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B65" s="4">
-        <v>0.54520000000000002</v>
+        <v>0.55030000000000001</v>
       </c>
       <c r="C65" s="4">
-        <v>0.82530000000000003</v>
+        <v>0.82830000000000004</v>
       </c>
       <c r="D65" s="4">
-        <v>0.30719999999999997</v>
+        <v>0.30969999999999998</v>
       </c>
       <c r="E65" s="4">
-        <v>0.4647</v>
+        <v>0.46360000000000001</v>
       </c>
       <c r="F65" s="4">
-        <v>0.72850000000000004</v>
+        <v>0.72689999999999999</v>
       </c>
       <c r="G65" s="4">
-        <v>0.21149999999999999</v>
+        <v>0.22439999999999999</v>
       </c>
       <c r="H65" s="4">
-        <v>0.76919999999999999</v>
+        <v>0.77310000000000001</v>
       </c>
       <c r="I65" s="4">
-        <v>0.46839999999999998</v>
+        <v>0.46910000000000002</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>0.54317499999999996</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.4647</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.72850000000000004</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="J66" s="6">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B67" s="4">
         <v>0.54610000000000003</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C67" s="4">
         <v>0.82869999999999999</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D67" s="4">
         <v>0.30840000000000001</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <v>0.4627</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F67" s="4">
         <v>0.72529999999999994</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G67" s="4">
         <v>0.22209999999999999</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H67" s="4">
         <v>0.76910000000000001</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I67" s="4">
         <v>0.46949999999999997</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J67" s="6">
         <f t="shared" si="0"/>
         <v>0.54148750000000001</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K67" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="9"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0.59470000000000001</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0.84130000000000005</v>
-      </c>
-      <c r="D68" s="4">
-        <v>0.38679999999999998</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0.56359999999999999</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0.75609999999999999</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0.62929999999999997</v>
-      </c>
-      <c r="H68" s="4">
-        <v>0.83120000000000005</v>
-      </c>
-      <c r="I68" s="4">
-        <v>0.60850000000000004</v>
-      </c>
-      <c r="J68" s="6">
-        <f t="shared" si="0"/>
-        <v>0.6514375</v>
-      </c>
+    <row r="68" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B69" s="4">
-        <v>0.628</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="C69" s="4">
-        <v>0.86240000000000006</v>
+        <v>0.84130000000000005</v>
       </c>
       <c r="D69" s="4">
-        <v>0.33289999999999997</v>
+        <v>0.38679999999999998</v>
       </c>
       <c r="E69" s="4">
-        <v>0.4914</v>
+        <v>0.56359999999999999</v>
       </c>
       <c r="F69" s="4">
-        <v>0.77270000000000005</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="G69" s="4">
-        <v>0.59819999999999995</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="H69" s="4">
-        <v>0.83779999999999999</v>
+        <v>0.83120000000000005</v>
       </c>
       <c r="I69" s="4">
-        <v>0.61070000000000002</v>
+        <v>0.60850000000000004</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" si="0"/>
-        <v>0.64176250000000001</v>
+        <v>0.6514375</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="4">
-        <v>0.62629999999999997</v>
+        <v>0.628</v>
       </c>
       <c r="C70" s="4">
-        <v>0.85899999999999999</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="D70" s="4">
-        <v>0.33410000000000001</v>
+        <v>0.33289999999999997</v>
       </c>
       <c r="E70" s="4">
-        <v>0.50239999999999996</v>
+        <v>0.4914</v>
       </c>
       <c r="F70" s="4">
-        <v>0.77510000000000001</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="G70" s="4">
-        <v>0.59889999999999999</v>
+        <v>0.59819999999999995</v>
       </c>
       <c r="H70" s="4">
-        <v>0.82489999999999997</v>
+        <v>0.83779999999999999</v>
       </c>
       <c r="I70" s="4">
-        <v>0.60680000000000001</v>
+        <v>0.61070000000000002</v>
       </c>
       <c r="J70" s="6">
-        <f>AVERAGE(B70:I70)</f>
-        <v>0.64093749999999994</v>
+        <f t="shared" si="0"/>
+        <v>0.64176250000000001</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B71" s="4">
-        <v>0.61950000000000005</v>
+        <v>0.62629999999999997</v>
       </c>
       <c r="C71" s="4">
-        <v>0.85229999999999995</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D71" s="4">
-        <v>0.33900000000000002</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="E71" s="4">
-        <v>0.49959999999999999</v>
+        <v>0.50239999999999996</v>
       </c>
       <c r="F71" s="4">
         <v>0.77510000000000001</v>
       </c>
       <c r="G71" s="4">
-        <v>0.60799999999999998</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="H71" s="4">
-        <v>0.83650000000000002</v>
+        <v>0.82489999999999997</v>
       </c>
       <c r="I71" s="4">
-        <v>0.60429999999999995</v>
+        <v>0.60680000000000001</v>
       </c>
       <c r="J71" s="6">
         <f>AVERAGE(B71:I71)</f>
+        <v>0.64093749999999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.61950000000000005</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="J72" s="6">
+        <f>AVERAGE(B72:I72)</f>
         <v>0.64178750000000007</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="4">
-        <v>0.62629999999999997</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0.84340000000000004</v>
-      </c>
-      <c r="D72" s="4">
-        <v>0.37580000000000002</v>
-      </c>
-      <c r="E72" s="4">
-        <v>0.54569999999999996</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0.76090000000000002</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0.60050000000000003</v>
-      </c>
-      <c r="H72" s="4">
-        <v>0.83279999999999998</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" si="0"/>
-        <v>0.64905000000000002</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B73" s="4">
-        <v>0.61180000000000001</v>
+        <v>0.62629999999999997</v>
       </c>
       <c r="C73" s="4">
-        <v>0.84470000000000001</v>
+        <v>0.84340000000000004</v>
       </c>
       <c r="D73" s="4">
-        <v>0.35499999999999998</v>
+        <v>0.37580000000000002</v>
       </c>
       <c r="E73" s="4">
-        <v>0.50529999999999997</v>
+        <v>0.54569999999999996</v>
       </c>
       <c r="F73" s="4">
-        <v>0.7601</v>
+        <v>0.76090000000000002</v>
       </c>
       <c r="G73" s="4">
-        <v>0.56859999999999999</v>
+        <v>0.60050000000000003</v>
       </c>
       <c r="H73" s="4">
-        <v>0.8145</v>
+        <v>0.83279999999999998</v>
       </c>
       <c r="I73" s="4">
-        <v>0.60260000000000002</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="J73" s="6">
-        <f>AVERAGE(B73:I73)</f>
-        <v>0.63282499999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.64905000000000002</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B74" s="4">
-        <v>0.60750000000000004</v>
+        <v>0.61180000000000001</v>
       </c>
       <c r="C74" s="4">
-        <v>0.84509999999999996</v>
+        <v>0.84470000000000001</v>
       </c>
       <c r="D74" s="4">
-        <v>0.33779999999999999</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E74" s="4">
-        <v>0.47510000000000002</v>
+        <v>0.50529999999999997</v>
       </c>
       <c r="F74" s="4">
-        <v>0.76160000000000005</v>
+        <v>0.7601</v>
       </c>
       <c r="G74" s="4">
-        <v>0.53069999999999995</v>
+        <v>0.56859999999999999</v>
       </c>
       <c r="H74" s="4">
-        <v>0.7944</v>
+        <v>0.8145</v>
       </c>
       <c r="I74" s="4">
-        <v>0.59570000000000001</v>
+        <v>0.60260000000000002</v>
       </c>
       <c r="J74" s="6">
-        <f t="shared" si="0"/>
-        <v>0.61848749999999997</v>
+        <f>AVERAGE(B74:I74)</f>
+        <v>0.63282499999999997</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B75" s="4">
-        <v>0.57850000000000001</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="C75" s="4">
         <v>0.84509999999999996</v>
       </c>
       <c r="D75" s="4">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.47510000000000002</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0.7944</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0.59570000000000001</v>
+      </c>
+      <c r="J75" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61848749999999997</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="D76" s="4">
         <v>0.25090000000000001</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <v>0.48870000000000002</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F76" s="4">
         <v>0.72850000000000004</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G76" s="4">
         <v>0.4829</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H76" s="4">
         <v>0.6835</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I76" s="4">
         <v>0.56530000000000002</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="6">
         <f t="shared" si="0"/>
         <v>0.57792499999999991</v>
       </c>
-      <c r="K75" s="5" t="s">
+      <c r="K76" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="8"/>
-    </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B78" s="4">
         <v>0.51019999999999999</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C78" s="4">
         <v>0.79969999999999997</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D78" s="4">
         <v>0.21659999999999999</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <v>0.33989999999999998</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="4">
         <v>0.7167</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="4">
         <v>9.9299999999999999E-2</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="4">
         <v>0.78129999999999999</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J78" s="6">
         <f t="shared" si="0"/>
         <v>0.4759624999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="4">
-        <v>0.52390000000000003</v>
-      </c>
-      <c r="C78" s="4">
-        <v>0.80179999999999996</v>
-      </c>
-      <c r="D78" s="4">
-        <v>0.224</v>
-      </c>
-      <c r="E78" s="4">
-        <v>0.33150000000000002</v>
-      </c>
-      <c r="F78" s="4">
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="G78" s="4">
-        <v>0.12130000000000001</v>
-      </c>
-      <c r="H78" s="4">
-        <v>0.79079999999999995</v>
-      </c>
-      <c r="I78" s="4">
-        <v>0.34129999999999999</v>
-      </c>
-      <c r="J78" s="6">
-        <f t="shared" si="0"/>
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B79" s="4">
-        <v>0.52470000000000006</v>
+        <v>0.52390000000000003</v>
       </c>
       <c r="C79" s="4">
-        <v>0.80130000000000001</v>
+        <v>0.80179999999999996</v>
       </c>
       <c r="D79" s="4">
-        <v>0.22520000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="E79" s="4">
-        <v>0.33050000000000002</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="F79" s="4">
-        <v>0.71589999999999998</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="G79" s="4">
-        <v>0.113</v>
+        <v>0.12130000000000001</v>
       </c>
       <c r="H79" s="4">
-        <v>0.79220000000000002</v>
+        <v>0.79079999999999995</v>
       </c>
       <c r="I79" s="4">
-        <v>0.33600000000000002</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="J79" s="6">
-        <f>AVERAGE(B79:I79)</f>
-        <v>0.47984999999999994</v>
+        <f t="shared" si="0"/>
+        <v>0.48209999999999997</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="4">
         <v>0.52470000000000006</v>
       </c>
       <c r="C80" s="4">
-        <v>0.80259999999999998</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="D80" s="4">
-        <v>0.2228</v>
+        <v>0.22520000000000001</v>
       </c>
       <c r="E80" s="4">
-        <v>0.32850000000000001</v>
+        <v>0.33050000000000002</v>
       </c>
       <c r="F80" s="4">
-        <v>0.72529999999999994</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="G80" s="4">
         <v>0.113</v>
       </c>
       <c r="H80" s="4">
-        <v>0.79259999999999997</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="I80" s="4">
-        <v>0.33929999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="J80" s="6">
-        <f t="shared" si="0"/>
-        <v>0.48110000000000003</v>
+        <f>AVERAGE(B80:I80)</f>
+        <v>0.47984999999999994</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.2228</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0.79259999999999997</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="J81" s="6">
+        <f t="shared" si="0"/>
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B82" s="4">
         <v>0.52729999999999999</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C82" s="4">
         <v>0.80130000000000001</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D82" s="4">
         <v>0.2215</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="4">
         <v>0.3276</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="4">
         <v>0.72450000000000003</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="4">
         <v>0.11219999999999999</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="4">
         <v>0.79300000000000004</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="4">
         <v>0.33800000000000002</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J82" s="6">
         <f t="shared" si="0"/>
         <v>0.48067500000000002</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="K82" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="8"/>
-      <c r="K82"/>
-    </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="8"/>
+      <c r="K83"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B85" s="4">
         <v>0.52900000000000003</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C85" s="4">
         <v>0.82530000000000003</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D85" s="4">
         <v>0.31209999999999999</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <v>0.44940000000000002</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F85" s="4">
         <v>0.72299999999999998</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G85" s="4">
         <v>0.13719999999999999</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H85" s="4">
         <v>0.76190000000000002</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I85" s="4">
         <v>0.44790000000000002</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J85" s="6">
         <f t="shared" si="0"/>
         <v>0.52322499999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B86" s="4">
         <v>0.53600000000000003</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C86" s="4">
         <v>0.82909999999999995</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D86" s="4">
         <v>0.34389999999999998</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="4">
         <v>0.50549999999999995</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="4">
         <v>0.73480000000000001</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="4">
         <v>0.15160000000000001</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="4">
         <v>0.77349999999999997</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I86" s="4">
         <v>0.44779999999999998</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J86" s="6">
         <f t="shared" si="0"/>
         <v>0.54027500000000006</v>
       </c>
-      <c r="K85" s="5" t="s">
+      <c r="K86" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="53" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="B86" s="53">
+      <c r="B87" s="49">
         <v>0.55200000000000005</v>
       </c>
-      <c r="C86" s="53">
+      <c r="C87" s="49">
         <v>0.83250000000000002</v>
       </c>
-      <c r="D86" s="53">
+      <c r="D87" s="49">
         <v>0.31090000000000001</v>
       </c>
-      <c r="E86" s="53">
+      <c r="E87" s="49">
         <v>0.4597</v>
       </c>
-      <c r="F86" s="53">
+      <c r="F87" s="49">
         <v>0.7167</v>
       </c>
-      <c r="G86" s="53">
+      <c r="G87" s="49">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H86" s="53">
+      <c r="H87" s="49">
         <v>0.77890000000000004</v>
       </c>
-      <c r="I86" s="53">
+      <c r="I87" s="49">
         <v>0.45579999999999998</v>
       </c>
-      <c r="J86" s="54">
+      <c r="J87" s="50">
         <f t="shared" si="0"/>
         <v>0.53283750000000007</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A87" s="26" t="s">
+    <row r="88" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B87" s="26">
+      <c r="B88" s="26">
         <v>0.54610000000000003</v>
       </c>
-      <c r="C87" s="26">
+      <c r="C88" s="26">
         <v>0.82620000000000005</v>
       </c>
-      <c r="D87" s="26">
+      <c r="D88" s="26">
         <v>0.34760000000000002</v>
       </c>
-      <c r="E87" s="26">
+      <c r="E88" s="26">
         <v>0.50700000000000001</v>
       </c>
-      <c r="F87" s="26">
+      <c r="F88" s="26">
         <v>0.7127</v>
       </c>
-      <c r="G87" s="26">
+      <c r="G88" s="26">
         <v>0.1547</v>
       </c>
-      <c r="H87" s="26">
+      <c r="H88" s="26">
         <v>0.77429999999999999</v>
       </c>
-      <c r="I87" s="26">
+      <c r="I88" s="26">
         <v>0.44790000000000002</v>
       </c>
-      <c r="J87" s="27">
+      <c r="J88" s="27">
         <f t="shared" si="0"/>
         <v>0.53956249999999994</v>
       </c>
-      <c r="K87" s="5" t="s">
+      <c r="K88" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="26" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B88" s="26">
+      <c r="B89" s="26">
         <v>0.54010000000000002</v>
       </c>
-      <c r="C88" s="26">
+      <c r="C89" s="26">
         <v>0.83120000000000005</v>
       </c>
-      <c r="D88" s="26">
+      <c r="D89" s="26">
         <v>0.34029999999999999</v>
       </c>
-      <c r="E88" s="26">
+      <c r="E89" s="26">
         <v>0.50470000000000004</v>
       </c>
-      <c r="F88" s="26">
+      <c r="F89" s="26">
         <v>0.71430000000000005</v>
       </c>
-      <c r="G88" s="26">
+      <c r="G89" s="26">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H88" s="26">
+      <c r="H89" s="26">
         <v>0.77129999999999999</v>
       </c>
-      <c r="I88" s="26">
+      <c r="I89" s="26">
         <v>0.44890000000000002</v>
       </c>
-      <c r="J88" s="27">
+      <c r="J89" s="27">
         <f t="shared" si="0"/>
         <v>0.53922500000000007</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B89" s="4">
-        <v>0.5333</v>
-      </c>
-      <c r="C89" s="4">
-        <v>0.83120000000000005</v>
-      </c>
-      <c r="D89" s="4">
-        <v>0.3427</v>
-      </c>
-      <c r="E89" s="4">
-        <v>0.50660000000000005</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0.72689999999999999</v>
-      </c>
-      <c r="G89" s="4">
-        <v>0.1706</v>
-      </c>
-      <c r="H89" s="4">
-        <v>0.77270000000000005</v>
-      </c>
-      <c r="I89" s="4">
-        <v>0.45090000000000002</v>
-      </c>
-      <c r="J89" s="6">
-        <f t="shared" si="0"/>
-        <v>0.54186250000000002</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" s="4">
-        <v>0.53500000000000003</v>
+        <v>0.5333</v>
       </c>
       <c r="C90" s="4">
-        <v>0.82789999999999997</v>
+        <v>0.83120000000000005</v>
       </c>
       <c r="D90" s="4">
-        <v>0.34760000000000002</v>
+        <v>0.3427</v>
       </c>
       <c r="E90" s="4">
-        <v>0.51060000000000005</v>
+        <v>0.50660000000000005</v>
       </c>
       <c r="F90" s="4">
-        <v>0.73399999999999999</v>
+        <v>0.72689999999999999</v>
       </c>
       <c r="G90" s="4">
-        <v>0.15540000000000001</v>
+        <v>0.1706</v>
       </c>
       <c r="H90" s="4">
-        <v>0.77439999999999998</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="I90" s="4">
-        <v>0.45290000000000002</v>
+        <v>0.45090000000000002</v>
       </c>
       <c r="J90" s="6">
-        <f>AVERAGE(B90:I90)</f>
-        <v>0.54222500000000007</v>
+        <f t="shared" si="0"/>
+        <v>0.54186250000000002</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B91" s="26">
-        <v>0.54010000000000002</v>
-      </c>
-      <c r="C91" s="26">
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="D91" s="26">
-        <v>0.3427</v>
-      </c>
-      <c r="E91" s="26">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="F91" s="26">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="G91" s="26">
-        <v>0.15920000000000001</v>
-      </c>
-      <c r="H91" s="26">
-        <v>0.77210000000000001</v>
-      </c>
-      <c r="I91" s="26">
-        <v>0.45190000000000002</v>
-      </c>
-      <c r="J91" s="27">
-        <f>AVERAGE(B91:I91)</f>
-        <v>0.54036250000000008</v>
+      <c r="A91" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="49">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="C91" s="49">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="D91" s="49">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="E91" s="49">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="F91" s="49">
+        <v>0.7198</v>
+      </c>
+      <c r="G91" s="49">
+        <v>0.15770000000000001</v>
+      </c>
+      <c r="H91" s="49">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="I91" s="49">
+        <v>0.4526</v>
+      </c>
+      <c r="J91" s="50">
+        <f t="shared" si="0"/>
+        <v>0.53830000000000011</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B92" s="4">
-        <v>0.54179999999999995</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="C92" s="4">
-        <v>0.83250000000000002</v>
+        <v>0.82789999999999997</v>
       </c>
       <c r="D92" s="4">
         <v>0.34760000000000002</v>
       </c>
       <c r="E92" s="4">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0.15540000000000001</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="J92" s="6">
+        <f t="shared" ref="J92:J97" si="1">AVERAGE(B92:I92)</f>
+        <v>0.54222500000000007</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="26">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="C93" s="26">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="D93" s="26">
+        <v>0.3427</v>
+      </c>
+      <c r="E93" s="26">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="F93" s="26">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="G93" s="26">
+        <v>0.15920000000000001</v>
+      </c>
+      <c r="H93" s="26">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="I93" s="26">
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="J93" s="27">
+        <f t="shared" si="1"/>
+        <v>0.54036250000000008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="E94" s="4">
         <v>0.50860000000000005</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F94" s="4">
         <v>0.7167</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G94" s="4">
         <v>0.15920000000000001</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H94" s="4">
         <v>0.77180000000000004</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I94" s="4">
         <v>0.45240000000000002</v>
       </c>
-      <c r="J92" s="6">
-        <f>AVERAGE(B92:I92)</f>
+      <c r="J94" s="6">
+        <f t="shared" si="1"/>
         <v>0.54132499999999995</v>
       </c>
-      <c r="K92" s="5" t="s">
+      <c r="K94" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="49">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="C95" s="49">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="D95" s="49">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E95" s="49">
+        <v>0.497</v>
+      </c>
+      <c r="F95" s="49">
+        <v>0.72140000000000004</v>
+      </c>
+      <c r="G95" s="49">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="H95" s="49">
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="I95" s="49">
+        <v>0.45379999999999998</v>
+      </c>
+      <c r="J95" s="50">
+        <f t="shared" si="1"/>
+        <v>0.538825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B96" s="4">
         <v>0.54610000000000003</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C96" s="4">
         <v>0.83289999999999997</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D96" s="4">
         <v>0.34389999999999998</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E96" s="4">
         <v>0.50780000000000003</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F96" s="4">
         <v>0.71509999999999996</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G96" s="4">
         <v>0.15770000000000001</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H96" s="4">
         <v>0.77139999999999997</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I96" s="4">
         <v>0.4511</v>
       </c>
-      <c r="J93" s="6">
-        <f>AVERAGE(B93:I93)</f>
+      <c r="J96" s="6">
+        <f t="shared" si="1"/>
         <v>0.54075000000000006</v>
       </c>
-      <c r="K93" s="5" t="s">
+      <c r="K96" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="49">
+        <v>0.54610000000000003</v>
+      </c>
+      <c r="C97" s="49">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="D97" s="49">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="E97" s="49">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="F97" s="49">
+        <v>0.7167</v>
+      </c>
+      <c r="G97" s="49">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="H97" s="49">
+        <v>0.7732</v>
+      </c>
+      <c r="I97" s="49">
+        <v>0.45379999999999998</v>
+      </c>
+      <c r="J97" s="50">
+        <f t="shared" si="1"/>
+        <v>0.54121249999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5446,14 +5612,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -5876,10 +6042,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -5897,8 +6063,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="24" t="s">
         <v>116</v>
       </c>
@@ -5914,8 +6080,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="24" t="s">
         <v>127</v>
       </c>
@@ -5931,8 +6097,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="24" t="s">
         <v>128</v>
       </c>
@@ -5948,8 +6114,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="24" t="s">
         <v>129</v>
       </c>
@@ -5992,10 +6158,10 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="52" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -6013,8 +6179,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="24" t="s">
         <v>115</v>
       </c>
@@ -6030,8 +6196,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="24" t="s">
         <v>116</v>
       </c>
@@ -6047,8 +6213,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="24" t="s">
         <v>127</v>
       </c>
@@ -6064,8 +6230,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="24" t="s">
         <v>128</v>
       </c>
@@ -6081,8 +6247,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="24" t="s">
         <v>129</v>
       </c>
@@ -6132,20 +6298,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="D1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="D1" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="E1" s="53"/>
+      <c r="G1" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="H1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -6779,7 +6945,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>116</v>
       </c>
       <c r="B2" t="s">
@@ -6812,7 +6978,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="54"/>
       <c r="B3" t="s">
         <v>160</v>
       </c>
@@ -6843,7 +7009,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" t="s">
         <v>153</v>
       </c>
@@ -6852,7 +7018,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="54"/>
       <c r="B5" t="s">
         <v>162</v>
       </c>
@@ -6861,7 +7027,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="54"/>
       <c r="B6" t="s">
         <v>154</v>
       </c>
@@ -6926,7 +7092,7 @@
       <c r="A8" s="42"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="54" t="s">
         <v>127</v>
       </c>
       <c r="B9" t="s">
@@ -6959,7 +7125,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="54"/>
       <c r="B10" t="s">
         <v>160</v>
       </c>
@@ -6990,7 +7156,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
       <c r="B11" t="s">
         <v>153</v>
       </c>
@@ -7021,7 +7187,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="54"/>
       <c r="B12" t="s">
         <v>162</v>
       </c>
@@ -7052,7 +7218,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="54"/>
       <c r="B13" t="s">
         <v>154</v>
       </c>
@@ -7089,7 +7255,7 @@
       <c r="A15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="54" t="s">
         <v>128</v>
       </c>
       <c r="B16" t="s">
@@ -7097,25 +7263,25 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="54"/>
       <c r="B17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" t="s">
         <v>154</v>
       </c>
@@ -7127,7 +7293,7 @@
       <c r="A22" s="42"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="54" t="s">
         <v>129</v>
       </c>
       <c r="B23" t="s">
@@ -7135,25 +7301,25 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="54"/>
       <c r="B24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="54"/>
       <c r="B25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="54"/>
       <c r="B26" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="54"/>
       <c r="B27" t="s">
         <v>154</v>
       </c>
